--- a/deeplearning1/excel/conv-example.xlsx
+++ b/deeplearning1/excel/conv-example.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\Google Drive\Docs\fastai\course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PeiYingchi/Documents/fastai-notes/deeplearning1/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="0" windowWidth="21420" windowHeight="12900"/>
+    <workbookView xWindow="7900" yWindow="1220" windowWidth="21420" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="conv-example" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Input</t>
   </si>
@@ -56,11 +61,17 @@
   <si>
     <t>NB: MNIST would have 10 activations, and a softmax layer)</t>
   </si>
+  <si>
+    <t xml:space="preserve">have half the resolutions in both x and y </t>
+  </si>
+  <si>
+    <t>all these are random numbers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -910,29 +921,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:EP57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CV1" workbookViewId="0">
-      <selection activeCell="EN6" sqref="EN6"/>
+    <sheetView tabSelected="1" topLeftCell="DJ2" workbookViewId="0">
+      <selection activeCell="EN2" sqref="EN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="28" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" customWidth="1"/>
     <col min="30" max="33" width="4.33203125" customWidth="1"/>
-    <col min="34" max="59" width="2.59765625" customWidth="1"/>
+    <col min="34" max="59" width="2.6640625" customWidth="1"/>
     <col min="60" max="60" width="3.6640625" customWidth="1"/>
     <col min="61" max="64" width="4.33203125" customWidth="1"/>
-    <col min="65" max="89" width="3.19921875" customWidth="1"/>
-    <col min="91" max="115" width="2.86328125" customWidth="1"/>
-    <col min="116" max="118" width="4.1328125" customWidth="1"/>
-    <col min="119" max="141" width="3.59765625" customWidth="1"/>
-    <col min="142" max="142" width="4.1328125" customWidth="1"/>
+    <col min="65" max="89" width="3.1640625" customWidth="1"/>
+    <col min="91" max="115" width="2.83203125" customWidth="1"/>
+    <col min="116" max="118" width="4.1640625" customWidth="1"/>
+    <col min="119" max="141" width="3.6640625" customWidth="1"/>
+    <col min="142" max="142" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -953,7 +964,7 @@
       </c>
       <c r="EP1" s="3"/>
     </row>
-    <row r="2" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1037,6 +1048,9 @@
       </c>
       <c r="AB2" s="2">
         <v>0</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>12</v>
       </c>
       <c r="DN2" s="4" t="s">
         <v>10</v>
@@ -1045,7 +1059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1234,8 +1248,11 @@
         <f t="array" ref="BG3">SUM(Z2:AB4*$AD$11:$AF$13)</f>
         <v>0</v>
       </c>
+      <c r="DN3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1620,7 +1637,7 @@
         <v>1814.9177220747999</v>
       </c>
     </row>
-    <row r="5" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1910,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -2291,7 +2308,7 @@
         <v>0.99788452624072421</v>
       </c>
     </row>
-    <row r="7" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2581,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -2962,7 +2979,7 @@
         <v>0.12151386777108597</v>
       </c>
     </row>
-    <row r="9" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -3258,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -3639,7 +3656,7 @@
         <v>0.29766403805957964</v>
       </c>
     </row>
-    <row r="11" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -3947,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -4346,7 +4363,7 @@
         <v>0.11076347635583872</v>
       </c>
     </row>
-    <row r="13" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -4654,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -5035,7 +5052,7 @@
         <v>2.3605439822707686E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -5334,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:146" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:146" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -5724,7 +5741,7 @@
         <v>0.2545382137449389</v>
       </c>
     </row>
-    <row r="17" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -6023,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -6404,7 +6421,7 @@
         <v>0.7853924012925958</v>
       </c>
     </row>
-    <row r="19" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -6694,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -7075,7 +7092,7 @@
         <v>0.70137004323189511</v>
       </c>
     </row>
-    <row r="21" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -7365,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -7746,7 +7763,7 @@
         <v>0.14069301372140253</v>
       </c>
     </row>
-    <row r="23" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -8036,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -8417,7 +8434,7 @@
         <v>0.27364551997092634</v>
       </c>
     </row>
-    <row r="25" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -8707,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -9088,7 +9105,7 @@
         <v>0.41137274022015569</v>
       </c>
     </row>
-    <row r="27" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -9378,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -9568,7 +9585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -9654,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -9684,7 +9701,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="32" spans="1:142" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:142" x14ac:dyDescent="0.2">
       <c r="AH32">
         <f t="array" ref="AH32">SUM(A2:C4*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -9790,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="33" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AH33">
         <f t="array" ref="AH33">SUM(A3:C5*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -10087,7 +10104,7 @@
         <v>0.12418678017957829</v>
       </c>
     </row>
-    <row r="34" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="34" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AH34">
         <f t="array" ref="AH34">SUM(A4:C6*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -10293,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="35" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AH35">
         <f t="array" ref="AH35">SUM(A5:C7*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -10499,55 +10516,55 @@
         <v>0</v>
       </c>
       <c r="CM35">
-        <f t="shared" ref="CM35:CM55" si="26">MAX(BM35:BN36)</f>
+        <f t="shared" ref="CM35" si="26">MAX(BM35:BN36)</f>
         <v>0</v>
       </c>
       <c r="CO35">
-        <f t="shared" ref="CO35:CO55" si="27">MAX(BO35:BP36)</f>
+        <f t="shared" ref="CO35" si="27">MAX(BO35:BP36)</f>
         <v>0</v>
       </c>
       <c r="CQ35">
-        <f t="shared" ref="CQ35:CQ55" si="28">MAX(BQ35:BR36)</f>
+        <f t="shared" ref="CQ35" si="28">MAX(BQ35:BR36)</f>
         <v>0</v>
       </c>
       <c r="CS35">
-        <f t="shared" ref="CS35:CS55" si="29">MAX(BS35:BT36)</f>
+        <f t="shared" ref="CS35" si="29">MAX(BS35:BT36)</f>
         <v>0.50831698437727213</v>
       </c>
       <c r="CU35">
-        <f t="shared" ref="CU35:CU55" si="30">MAX(BU35:BV36)</f>
+        <f t="shared" ref="CU35" si="30">MAX(BU35:BV36)</f>
         <v>1.4711792845188807</v>
       </c>
       <c r="CW35">
-        <f t="shared" ref="CW35:CW55" si="31">MAX(BW35:BX36)</f>
+        <f t="shared" ref="CW35" si="31">MAX(BW35:BX36)</f>
         <v>1.8652760026791628</v>
       </c>
       <c r="CY35">
-        <f t="shared" ref="CY35:CY55" si="32">MAX(BY35:BZ36)</f>
+        <f t="shared" ref="CY35" si="32">MAX(BY35:BZ36)</f>
         <v>1.5100033166476128</v>
       </c>
       <c r="DA35">
-        <f t="shared" ref="DA35:DA55" si="33">MAX(CA35:CB36)</f>
+        <f t="shared" ref="DA35" si="33">MAX(CA35:CB36)</f>
         <v>0.4517647135076619</v>
       </c>
       <c r="DC35">
-        <f t="shared" ref="DC35:DC55" si="34">MAX(CC35:CD36)</f>
+        <f t="shared" ref="DC35" si="34">MAX(CC35:CD36)</f>
         <v>0</v>
       </c>
       <c r="DE35">
-        <f t="shared" ref="DE35:DE55" si="35">MAX(CE35:CF36)</f>
+        <f t="shared" ref="DE35" si="35">MAX(CE35:CF36)</f>
         <v>0</v>
       </c>
       <c r="DG35">
-        <f t="shared" ref="DG35:DG55" si="36">MAX(CG35:CH36)</f>
+        <f t="shared" ref="DG35" si="36">MAX(CG35:CH36)</f>
         <v>0</v>
       </c>
       <c r="DI35">
-        <f t="shared" ref="DI35:DI55" si="37">MAX(CI35:CJ36)</f>
+        <f t="shared" ref="DI35" si="37">MAX(CI35:CJ36)</f>
         <v>0</v>
       </c>
       <c r="DK35">
-        <f t="shared" ref="DK35:DK55" si="38">MAX(CK35:CL36)</f>
+        <f t="shared" ref="DK35" si="38">MAX(CK35:CL36)</f>
         <v>0</v>
       </c>
       <c r="DN35">
@@ -10590,7 +10607,7 @@
         <v>6.4584170053752499E-2</v>
       </c>
     </row>
-    <row r="36" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="36" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AD36" s="3" t="s">
         <v>3</v>
       </c>
@@ -10802,7 +10819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="37" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AH37">
         <f t="array" ref="AH37">SUM(A7:C9*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -11008,55 +11025,55 @@
         <v>0</v>
       </c>
       <c r="CM37">
-        <f t="shared" ref="CM37:CM55" si="39">MAX(BM37:BN38)</f>
+        <f t="shared" ref="CM37" si="39">MAX(BM37:BN38)</f>
         <v>8.5248041681862432</v>
       </c>
       <c r="CO37">
-        <f t="shared" ref="CO37:CO55" si="40">MAX(BO37:BP38)</f>
+        <f t="shared" ref="CO37" si="40">MAX(BO37:BP38)</f>
         <v>13.542165441633424</v>
       </c>
       <c r="CQ37">
-        <f t="shared" ref="CQ37:CQ55" si="41">MAX(BQ37:BR38)</f>
+        <f t="shared" ref="CQ37" si="41">MAX(BQ37:BR38)</f>
         <v>14.828259915776112</v>
       </c>
       <c r="CS37">
-        <f t="shared" ref="CS37:CS55" si="42">MAX(BS37:BT38)</f>
+        <f t="shared" ref="CS37" si="42">MAX(BS37:BT38)</f>
         <v>16.020988019725664</v>
       </c>
       <c r="CU37">
-        <f t="shared" ref="CU37:CU55" si="43">MAX(BU37:BV38)</f>
+        <f t="shared" ref="CU37" si="43">MAX(BU37:BV38)</f>
         <v>19.317480242393167</v>
       </c>
       <c r="CW37">
-        <f t="shared" ref="CW37:CW55" si="44">MAX(BW37:BX38)</f>
+        <f t="shared" ref="CW37" si="44">MAX(BW37:BX38)</f>
         <v>20.901067441758361</v>
       </c>
       <c r="CY37">
-        <f t="shared" ref="CY37:CY55" si="45">MAX(BY37:BZ38)</f>
+        <f t="shared" ref="CY37" si="45">MAX(BY37:BZ38)</f>
         <v>20.217416045079101</v>
       </c>
       <c r="DA37">
-        <f t="shared" ref="DA37:DA55" si="46">MAX(CA37:CB38)</f>
+        <f t="shared" ref="DA37" si="46">MAX(CA37:CB38)</f>
         <v>14.44412132388663</v>
       </c>
       <c r="DC37">
-        <f t="shared" ref="DC37:DC55" si="47">MAX(CC37:CD38)</f>
+        <f t="shared" ref="DC37" si="47">MAX(CC37:CD38)</f>
         <v>5.2613872505944599</v>
       </c>
       <c r="DE37">
-        <f t="shared" ref="DE37:DE55" si="48">MAX(CE37:CF38)</f>
+        <f t="shared" ref="DE37" si="48">MAX(CE37:CF38)</f>
         <v>0.62794633804413991</v>
       </c>
       <c r="DG37">
-        <f t="shared" ref="DG37:DG55" si="49">MAX(CG37:CH38)</f>
+        <f t="shared" ref="DG37" si="49">MAX(CG37:CH38)</f>
         <v>0</v>
       </c>
       <c r="DI37">
-        <f t="shared" ref="DI37:DI55" si="50">MAX(CI37:CJ38)</f>
+        <f t="shared" ref="DI37" si="50">MAX(CI37:CJ38)</f>
         <v>0</v>
       </c>
       <c r="DK37">
-        <f t="shared" ref="DK37:DK55" si="51">MAX(CK37:CL38)</f>
+        <f t="shared" ref="DK37" si="51">MAX(CK37:CL38)</f>
         <v>0</v>
       </c>
       <c r="DN37">
@@ -11099,7 +11116,7 @@
         <v>0.9257179186330543</v>
       </c>
     </row>
-    <row r="38" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="38" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AD38">
         <v>0.52650277421093949</v>
       </c>
@@ -11323,7 +11340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="39" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AD39">
         <v>0.67879194550467037</v>
       </c>
@@ -11547,55 +11564,55 @@
         <v>0</v>
       </c>
       <c r="CM39">
-        <f t="shared" ref="CM39:CM55" si="52">MAX(BM39:BN40)</f>
+        <f t="shared" ref="CM39" si="52">MAX(BM39:BN40)</f>
         <v>24.737202228639759</v>
       </c>
       <c r="CO39">
-        <f t="shared" ref="CO39:CO55" si="53">MAX(BO39:BP40)</f>
+        <f t="shared" ref="CO39" si="53">MAX(BO39:BP40)</f>
         <v>32.256323265313142</v>
       </c>
       <c r="CQ39">
-        <f t="shared" ref="CQ39:CQ55" si="54">MAX(BQ39:BR40)</f>
+        <f t="shared" ref="CQ39" si="54">MAX(BQ39:BR40)</f>
         <v>32.92067947286926</v>
       </c>
       <c r="CS39">
-        <f t="shared" ref="CS39:CS55" si="55">MAX(BS39:BT40)</f>
+        <f t="shared" ref="CS39" si="55">MAX(BS39:BT40)</f>
         <v>31.898807344728542</v>
       </c>
       <c r="CU39">
-        <f t="shared" ref="CU39:CU55" si="56">MAX(BU39:BV40)</f>
+        <f t="shared" ref="CU39" si="56">MAX(BU39:BV40)</f>
         <v>29.796393812044766</v>
       </c>
       <c r="CW39">
-        <f t="shared" ref="CW39:CW55" si="57">MAX(BW39:BX40)</f>
+        <f t="shared" ref="CW39" si="57">MAX(BW39:BX40)</f>
         <v>31.049747018120982</v>
       </c>
       <c r="CY39">
-        <f t="shared" ref="CY39:CY55" si="58">MAX(BY39:BZ40)</f>
+        <f t="shared" ref="CY39" si="58">MAX(BY39:BZ40)</f>
         <v>33.569751681031505</v>
       </c>
       <c r="DA39">
-        <f t="shared" ref="DA39:DA55" si="59">MAX(CA39:CB40)</f>
+        <f t="shared" ref="DA39" si="59">MAX(CA39:CB40)</f>
         <v>34.141589310174325</v>
       </c>
       <c r="DC39">
-        <f t="shared" ref="DC39:DC55" si="60">MAX(CC39:CD40)</f>
+        <f t="shared" ref="DC39" si="60">MAX(CC39:CD40)</f>
         <v>24.298892572495994</v>
       </c>
       <c r="DE39">
-        <f t="shared" ref="DE39:DE55" si="61">MAX(CE39:CF40)</f>
+        <f t="shared" ref="DE39" si="61">MAX(CE39:CF40)</f>
         <v>6.7354735415357396</v>
       </c>
       <c r="DG39">
-        <f t="shared" ref="DG39:DG55" si="62">MAX(CG39:CH40)</f>
+        <f t="shared" ref="DG39" si="62">MAX(CG39:CH40)</f>
         <v>0.38628791996680112</v>
       </c>
       <c r="DI39">
-        <f t="shared" ref="DI39:DI55" si="63">MAX(CI39:CJ40)</f>
+        <f t="shared" ref="DI39" si="63">MAX(CI39:CJ40)</f>
         <v>0</v>
       </c>
       <c r="DK39">
-        <f t="shared" ref="DK39:DK55" si="64">MAX(CK39:CL40)</f>
+        <f t="shared" ref="DK39" si="64">MAX(CK39:CL40)</f>
         <v>0</v>
       </c>
       <c r="DN39">
@@ -11638,7 +11655,7 @@
         <v>0.39343496649046428</v>
       </c>
     </row>
-    <row r="40" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="40" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AD40">
         <v>0.15683313231014728</v>
       </c>
@@ -11862,7 +11879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="41" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AH41">
         <f t="array" ref="AH41">SUM(A11:C13*$AD$38:$AF$40)</f>
         <v>1.3541230284115331</v>
@@ -12068,55 +12085,55 @@
         <v>0</v>
       </c>
       <c r="CM41">
-        <f t="shared" ref="CM41:CM55" si="65">MAX(BM41:BN42)</f>
+        <f t="shared" ref="CM41" si="65">MAX(BM41:BN42)</f>
         <v>23.404997353542512</v>
       </c>
       <c r="CO41">
-        <f t="shared" ref="CO41:CO55" si="66">MAX(BO41:BP42)</f>
+        <f t="shared" ref="CO41" si="66">MAX(BO41:BP42)</f>
         <v>27.183423252520331</v>
       </c>
       <c r="CQ41">
-        <f t="shared" ref="CQ41:CQ55" si="67">MAX(BQ41:BR42)</f>
+        <f t="shared" ref="CQ41" si="67">MAX(BQ41:BR42)</f>
         <v>26.604307701710106</v>
       </c>
       <c r="CS41">
-        <f t="shared" ref="CS41:CS55" si="68">MAX(BS41:BT42)</f>
+        <f t="shared" ref="CS41" si="68">MAX(BS41:BT42)</f>
         <v>24.427916988743082</v>
       </c>
       <c r="CU41">
-        <f t="shared" ref="CU41:CU55" si="69">MAX(BU41:BV42)</f>
+        <f t="shared" ref="CU41" si="69">MAX(BU41:BV42)</f>
         <v>20.024906794823913</v>
       </c>
       <c r="CW41">
-        <f t="shared" ref="CW41:CW55" si="70">MAX(BW41:BX42)</f>
+        <f t="shared" ref="CW41" si="70">MAX(BW41:BX42)</f>
         <v>18.910126588015519</v>
       </c>
       <c r="CY41">
-        <f t="shared" ref="CY41:CY55" si="71">MAX(BY41:BZ42)</f>
+        <f t="shared" ref="CY41" si="71">MAX(BY41:BZ42)</f>
         <v>25.465764063883974</v>
       </c>
       <c r="DA41">
-        <f t="shared" ref="DA41:DA55" si="72">MAX(CA41:CB42)</f>
+        <f t="shared" ref="DA41" si="72">MAX(CA41:CB42)</f>
         <v>34.475986631095651</v>
       </c>
       <c r="DC41">
-        <f t="shared" ref="DC41:DC55" si="73">MAX(CC41:CD42)</f>
+        <f t="shared" ref="DC41" si="73">MAX(CC41:CD42)</f>
         <v>34.627667864916745</v>
       </c>
       <c r="DE41">
-        <f t="shared" ref="DE41:DE55" si="74">MAX(CE41:CF42)</f>
+        <f t="shared" ref="DE41" si="74">MAX(CE41:CF42)</f>
         <v>19.973172801015078</v>
       </c>
       <c r="DG41">
-        <f t="shared" ref="DG41:DG55" si="75">MAX(CG41:CH42)</f>
+        <f t="shared" ref="DG41" si="75">MAX(CG41:CH42)</f>
         <v>2.8870572057944424</v>
       </c>
       <c r="DI41">
-        <f t="shared" ref="DI41:DI55" si="76">MAX(CI41:CJ42)</f>
+        <f t="shared" ref="DI41" si="76">MAX(CI41:CJ42)</f>
         <v>0</v>
       </c>
       <c r="DK41">
-        <f t="shared" ref="DK41:DK55" si="77">MAX(CK41:CL42)</f>
+        <f t="shared" ref="DK41" si="77">MAX(CK41:CL42)</f>
         <v>0</v>
       </c>
       <c r="DN41">
@@ -12159,7 +12176,7 @@
         <v>2.7567833346226478E-2</v>
       </c>
     </row>
-    <row r="42" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="42" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AH42">
         <f t="array" ref="AH42">SUM(A12:C14*$AD$38:$AF$40)</f>
         <v>0.81492150426237664</v>
@@ -12374,7 +12391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="43" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AH43">
         <f t="array" ref="AH43">SUM(A13:C15*$AD$38:$AF$40)</f>
         <v>0.11468953936637652</v>
@@ -12589,55 +12606,55 @@
         <v>0</v>
       </c>
       <c r="CM43">
-        <f t="shared" ref="CM43:CM55" si="78">MAX(BM43:BN44)</f>
+        <f t="shared" ref="CM43" si="78">MAX(BM43:BN44)</f>
         <v>4.9362975372505007</v>
       </c>
       <c r="CO43">
-        <f t="shared" ref="CO43:CO55" si="79">MAX(BO43:BP44)</f>
+        <f t="shared" ref="CO43" si="79">MAX(BO43:BP44)</f>
         <v>4.6085400578132933</v>
       </c>
       <c r="CQ43">
-        <f t="shared" ref="CQ43:CQ55" si="80">MAX(BQ43:BR44)</f>
+        <f t="shared" ref="CQ43" si="80">MAX(BQ43:BR44)</f>
         <v>3.4349377363893501</v>
       </c>
       <c r="CS43">
-        <f t="shared" ref="CS43:CS55" si="81">MAX(BS43:BT44)</f>
+        <f t="shared" ref="CS43" si="81">MAX(BS43:BT44)</f>
         <v>2.658593324704281</v>
       </c>
       <c r="CU43">
-        <f t="shared" ref="CU43:CU55" si="82">MAX(BU43:BV44)</f>
+        <f t="shared" ref="CU43" si="82">MAX(BU43:BV44)</f>
         <v>1.8521694580981223</v>
       </c>
       <c r="CW43">
-        <f t="shared" ref="CW43:CW55" si="83">MAX(BW43:BX44)</f>
+        <f t="shared" ref="CW43" si="83">MAX(BW43:BX44)</f>
         <v>4.0940115795742997</v>
       </c>
       <c r="CY43">
-        <f t="shared" ref="CY43:CY55" si="84">MAX(BY43:BZ44)</f>
+        <f t="shared" ref="CY43" si="84">MAX(BY43:BZ44)</f>
         <v>9.3594206285015158</v>
       </c>
       <c r="DA43">
-        <f t="shared" ref="DA43:DA55" si="85">MAX(CA43:CB44)</f>
+        <f t="shared" ref="DA43" si="85">MAX(CA43:CB44)</f>
         <v>26.829517795776592</v>
       </c>
       <c r="DC43">
-        <f t="shared" ref="DC43:DC55" si="86">MAX(CC43:CD44)</f>
+        <f t="shared" ref="DC43" si="86">MAX(CC43:CD44)</f>
         <v>36.519021978647707</v>
       </c>
       <c r="DE43">
-        <f t="shared" ref="DE43:DE55" si="87">MAX(CE43:CF44)</f>
+        <f t="shared" ref="DE43" si="87">MAX(CE43:CF44)</f>
         <v>29.0651365031813</v>
       </c>
       <c r="DG43">
-        <f t="shared" ref="DG43:DG55" si="88">MAX(CG43:CH44)</f>
+        <f t="shared" ref="DG43" si="88">MAX(CG43:CH44)</f>
         <v>6.4316939772986963</v>
       </c>
       <c r="DI43">
-        <f t="shared" ref="DI43:DI55" si="89">MAX(CI43:CJ44)</f>
+        <f t="shared" ref="DI43" si="89">MAX(CI43:CJ44)</f>
         <v>0</v>
       </c>
       <c r="DK43">
-        <f t="shared" ref="DK43:DK55" si="90">MAX(CK43:CL44)</f>
+        <f t="shared" ref="DK43" si="90">MAX(CK43:CL44)</f>
         <v>0</v>
       </c>
       <c r="DN43">
@@ -12680,7 +12697,7 @@
         <v>0.60881116157338266</v>
       </c>
     </row>
-    <row r="44" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="44" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AH44">
         <f t="array" ref="AH44">SUM(A14:C16*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -12895,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="45" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AH45">
         <f t="array" ref="AH45">SUM(A15:C17*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -13101,55 +13118,55 @@
         <v>0</v>
       </c>
       <c r="CM45">
-        <f t="shared" ref="CM45:CM55" si="91">MAX(BM45:BN46)</f>
+        <f t="shared" ref="CM45" si="91">MAX(BM45:BN46)</f>
         <v>0</v>
       </c>
       <c r="CO45">
-        <f t="shared" ref="CO45:CO55" si="92">MAX(BO45:BP46)</f>
+        <f t="shared" ref="CO45" si="92">MAX(BO45:BP46)</f>
         <v>0.19389409697348189</v>
       </c>
       <c r="CQ45">
-        <f t="shared" ref="CQ45:CQ55" si="93">MAX(BQ45:BR46)</f>
+        <f t="shared" ref="CQ45" si="93">MAX(BQ45:BR46)</f>
         <v>2.826416050278115</v>
       </c>
       <c r="CS45">
-        <f t="shared" ref="CS45:CS55" si="94">MAX(BS45:BT46)</f>
+        <f t="shared" ref="CS45" si="94">MAX(BS45:BT46)</f>
         <v>8.4632602782974224</v>
       </c>
       <c r="CU45">
-        <f t="shared" ref="CU45:CU55" si="95">MAX(BU45:BV46)</f>
+        <f t="shared" ref="CU45" si="95">MAX(BU45:BV46)</f>
         <v>17.611727712850708</v>
       </c>
       <c r="CW45">
-        <f t="shared" ref="CW45:CW55" si="96">MAX(BW45:BX46)</f>
+        <f t="shared" ref="CW45" si="96">MAX(BW45:BX46)</f>
         <v>26.226114185533813</v>
       </c>
       <c r="CY45">
-        <f t="shared" ref="CY45:CY55" si="97">MAX(BY45:BZ46)</f>
+        <f t="shared" ref="CY45" si="97">MAX(BY45:BZ46)</f>
         <v>30.181989266854224</v>
       </c>
       <c r="DA45">
-        <f t="shared" ref="DA45:DA55" si="98">MAX(CA45:CB46)</f>
+        <f t="shared" ref="DA45" si="98">MAX(CA45:CB46)</f>
         <v>37.617586070917149</v>
       </c>
       <c r="DC45">
-        <f t="shared" ref="DC45:DC55" si="99">MAX(CC45:CD46)</f>
+        <f t="shared" ref="DC45" si="99">MAX(CC45:CD46)</f>
         <v>42.15919905255852</v>
       </c>
       <c r="DE45">
-        <f t="shared" ref="DE45:DE55" si="100">MAX(CE45:CF46)</f>
+        <f t="shared" ref="DE45" si="100">MAX(CE45:CF46)</f>
         <v>33.614745233718978</v>
       </c>
       <c r="DG45">
-        <f t="shared" ref="DG45:DG55" si="101">MAX(CG45:CH46)</f>
+        <f t="shared" ref="DG45" si="101">MAX(CG45:CH46)</f>
         <v>9.9605354993172632</v>
       </c>
       <c r="DI45">
-        <f t="shared" ref="DI45:DI55" si="102">MAX(CI45:CJ46)</f>
+        <f t="shared" ref="DI45" si="102">MAX(CI45:CJ46)</f>
         <v>0</v>
       </c>
       <c r="DK45">
-        <f t="shared" ref="DK45:DK55" si="103">MAX(CK45:CL46)</f>
+        <f t="shared" ref="DK45" si="103">MAX(CK45:CL46)</f>
         <v>0</v>
       </c>
       <c r="DN45">
@@ -13192,7 +13209,7 @@
         <v>0.86678537201906625</v>
       </c>
     </row>
-    <row r="46" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="46" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AH46">
         <f t="array" ref="AH46">SUM(A16:C18*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -13398,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="47" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AH47">
         <f t="array" ref="AH47">SUM(A17:C19*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -13604,55 +13621,55 @@
         <v>0</v>
       </c>
       <c r="CM47">
-        <f t="shared" ref="CM47:CM55" si="104">MAX(BM47:BN48)</f>
+        <f t="shared" ref="CM47" si="104">MAX(BM47:BN48)</f>
         <v>0</v>
       </c>
       <c r="CO47">
-        <f t="shared" ref="CO47:CO55" si="105">MAX(BO47:BP48)</f>
+        <f t="shared" ref="CO47" si="105">MAX(BO47:BP48)</f>
         <v>4.8671588876067222</v>
       </c>
       <c r="CQ47">
-        <f t="shared" ref="CQ47:CQ55" si="106">MAX(BQ47:BR48)</f>
+        <f t="shared" ref="CQ47" si="106">MAX(BQ47:BR48)</f>
         <v>16.813851842840705</v>
       </c>
       <c r="CS47">
-        <f t="shared" ref="CS47:CS55" si="107">MAX(BS47:BT48)</f>
+        <f t="shared" ref="CS47" si="107">MAX(BS47:BT48)</f>
         <v>26.643171277741608</v>
       </c>
       <c r="CU47">
-        <f t="shared" ref="CU47:CU55" si="108">MAX(BU47:BV48)</f>
+        <f t="shared" ref="CU47" si="108">MAX(BU47:BV48)</f>
         <v>29.714617157701849</v>
       </c>
       <c r="CW47">
-        <f t="shared" ref="CW47:CW55" si="109">MAX(BW47:BX48)</f>
+        <f t="shared" ref="CW47" si="109">MAX(BW47:BX48)</f>
         <v>32.45322656806632</v>
       </c>
       <c r="CY47">
-        <f t="shared" ref="CY47:CY55" si="110">MAX(BY47:BZ48)</f>
+        <f t="shared" ref="CY47" si="110">MAX(BY47:BZ48)</f>
         <v>32.924975088986976</v>
       </c>
       <c r="DA47">
-        <f t="shared" ref="DA47:DA55" si="111">MAX(CA47:CB48)</f>
+        <f t="shared" ref="DA47" si="111">MAX(CA47:CB48)</f>
         <v>36.956170686321471</v>
       </c>
       <c r="DC47">
-        <f t="shared" ref="DC47:DC55" si="112">MAX(CC47:CD48)</f>
+        <f t="shared" ref="DC47" si="112">MAX(CC47:CD48)</f>
         <v>41.214520599794071</v>
       </c>
       <c r="DE47">
-        <f t="shared" ref="DE47:DE55" si="113">MAX(CE47:CF48)</f>
+        <f t="shared" ref="DE47" si="113">MAX(CE47:CF48)</f>
         <v>33.328086379058739</v>
       </c>
       <c r="DG47">
-        <f t="shared" ref="DG47:DG55" si="114">MAX(CG47:CH48)</f>
+        <f t="shared" ref="DG47" si="114">MAX(CG47:CH48)</f>
         <v>10.207566360137617</v>
       </c>
       <c r="DI47">
-        <f t="shared" ref="DI47:DI55" si="115">MAX(CI47:CJ48)</f>
+        <f t="shared" ref="DI47" si="115">MAX(CI47:CJ48)</f>
         <v>0</v>
       </c>
       <c r="DK47">
-        <f t="shared" ref="DK47:DK55" si="116">MAX(CK47:CL48)</f>
+        <f t="shared" ref="DK47" si="116">MAX(CK47:CL48)</f>
         <v>0</v>
       </c>
       <c r="DN47">
@@ -13695,7 +13712,7 @@
         <v>0.4757472817415962</v>
       </c>
     </row>
-    <row r="48" spans="30:142" x14ac:dyDescent="0.45">
+    <row r="48" spans="30:142" x14ac:dyDescent="0.2">
       <c r="AH48">
         <f t="array" ref="AH48">SUM(A18:C20*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -13901,7 +13918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="49" spans="34:142" x14ac:dyDescent="0.2">
       <c r="AH49">
         <f t="array" ref="AH49">SUM(A19:C21*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -14107,55 +14124,55 @@
         <v>0</v>
       </c>
       <c r="CM49">
-        <f t="shared" ref="CM49:CM55" si="117">MAX(BM49:BN50)</f>
+        <f t="shared" ref="CM49" si="117">MAX(BM49:BN50)</f>
         <v>0</v>
       </c>
       <c r="CO49">
-        <f t="shared" ref="CO49:CO55" si="118">MAX(BO49:BP50)</f>
+        <f t="shared" ref="CO49" si="118">MAX(BO49:BP50)</f>
         <v>7.8245768225024701</v>
       </c>
       <c r="CQ49">
-        <f t="shared" ref="CQ49:CQ55" si="119">MAX(BQ49:BR50)</f>
+        <f t="shared" ref="CQ49" si="119">MAX(BQ49:BR50)</f>
         <v>22.236091546208517</v>
       </c>
       <c r="CS49">
-        <f t="shared" ref="CS49:CS55" si="120">MAX(BS49:BT50)</f>
+        <f t="shared" ref="CS49" si="120">MAX(BS49:BT50)</f>
         <v>26.922179193579876</v>
       </c>
       <c r="CU49">
-        <f t="shared" ref="CU49:CU55" si="121">MAX(BU49:BV50)</f>
+        <f t="shared" ref="CU49" si="121">MAX(BU49:BV50)</f>
         <v>25.356023183665279</v>
       </c>
       <c r="CW49">
-        <f t="shared" ref="CW49:CW55" si="122">MAX(BW49:BX50)</f>
+        <f t="shared" ref="CW49" si="122">MAX(BW49:BX50)</f>
         <v>19.041443662765541</v>
       </c>
       <c r="CY49">
-        <f t="shared" ref="CY49:CY55" si="123">MAX(BY49:BZ50)</f>
+        <f t="shared" ref="CY49" si="123">MAX(BY49:BZ50)</f>
         <v>13.252407379358676</v>
       </c>
       <c r="DA49">
-        <f t="shared" ref="DA49:DA55" si="124">MAX(CA49:CB50)</f>
+        <f t="shared" ref="DA49" si="124">MAX(CA49:CB50)</f>
         <v>22.206984344444777</v>
       </c>
       <c r="DC49">
-        <f t="shared" ref="DC49:DC55" si="125">MAX(CC49:CD50)</f>
+        <f t="shared" ref="DC49" si="125">MAX(CC49:CD50)</f>
         <v>32.91244410250745</v>
       </c>
       <c r="DE49">
-        <f t="shared" ref="DE49:DE55" si="126">MAX(CE49:CF50)</f>
+        <f t="shared" ref="DE49" si="126">MAX(CE49:CF50)</f>
         <v>29.029639414720894</v>
       </c>
       <c r="DG49">
-        <f t="shared" ref="DG49:DG55" si="127">MAX(CG49:CH50)</f>
+        <f t="shared" ref="DG49" si="127">MAX(CG49:CH50)</f>
         <v>7.3164929273548642</v>
       </c>
       <c r="DI49">
-        <f t="shared" ref="DI49:DI55" si="128">MAX(CI49:CJ50)</f>
+        <f t="shared" ref="DI49" si="128">MAX(CI49:CJ50)</f>
         <v>0</v>
       </c>
       <c r="DK49">
-        <f t="shared" ref="DK49:DK55" si="129">MAX(CK49:CL50)</f>
+        <f t="shared" ref="DK49" si="129">MAX(CK49:CL50)</f>
         <v>0</v>
       </c>
       <c r="DN49">
@@ -14198,7 +14215,7 @@
         <v>0.57301548705157823</v>
       </c>
     </row>
-    <row r="50" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="50" spans="34:142" x14ac:dyDescent="0.2">
       <c r="AH50">
         <f t="array" ref="AH50">SUM(A20:C22*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -14404,7 +14421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="51" spans="34:142" x14ac:dyDescent="0.2">
       <c r="AH51">
         <f t="array" ref="AH51">SUM(A21:C23*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -14610,55 +14627,55 @@
         <v>0</v>
       </c>
       <c r="CM51">
-        <f t="shared" ref="CM51:CM55" si="130">MAX(BM51:BN52)</f>
+        <f t="shared" ref="CM51" si="130">MAX(BM51:BN52)</f>
         <v>0</v>
       </c>
       <c r="CO51">
-        <f t="shared" ref="CO51:CO55" si="131">MAX(BO51:BP52)</f>
+        <f t="shared" ref="CO51" si="131">MAX(BO51:BP52)</f>
         <v>5.2881971419328879</v>
       </c>
       <c r="CQ51">
-        <f t="shared" ref="CQ51:CQ55" si="132">MAX(BQ51:BR52)</f>
+        <f t="shared" ref="CQ51" si="132">MAX(BQ51:BR52)</f>
         <v>12.471574881998556</v>
       </c>
       <c r="CS51">
-        <f t="shared" ref="CS51:CS55" si="133">MAX(BS51:BT52)</f>
+        <f t="shared" ref="CS51" si="133">MAX(BS51:BT52)</f>
         <v>11.056183188117641</v>
       </c>
       <c r="CU51">
-        <f t="shared" ref="CU51:CU55" si="134">MAX(BU51:BV52)</f>
+        <f t="shared" ref="CU51" si="134">MAX(BU51:BV52)</f>
         <v>4.604787805602685</v>
       </c>
       <c r="CW51">
-        <f t="shared" ref="CW51:CW55" si="135">MAX(BW51:BX52)</f>
+        <f t="shared" ref="CW51" si="135">MAX(BW51:BX52)</f>
         <v>1.2971676092255335</v>
       </c>
       <c r="CY51">
-        <f t="shared" ref="CY51:CY55" si="136">MAX(BY51:BZ52)</f>
+        <f t="shared" ref="CY51" si="136">MAX(BY51:BZ52)</f>
         <v>7.9520727832933957</v>
       </c>
       <c r="DA51">
-        <f t="shared" ref="DA51:DA55" si="137">MAX(CA51:CB52)</f>
+        <f t="shared" ref="DA51" si="137">MAX(CA51:CB52)</f>
         <v>26.33880598381101</v>
       </c>
       <c r="DC51">
-        <f t="shared" ref="DC51:DC55" si="138">MAX(CC51:CD52)</f>
+        <f t="shared" ref="DC51" si="138">MAX(CC51:CD52)</f>
         <v>30.86698513518493</v>
       </c>
       <c r="DE51">
-        <f t="shared" ref="DE51:DE55" si="139">MAX(CE51:CF52)</f>
+        <f t="shared" ref="DE51" si="139">MAX(CE51:CF52)</f>
         <v>22.075855235142271</v>
       </c>
       <c r="DG51">
-        <f t="shared" ref="DG51:DG55" si="140">MAX(CG51:CH52)</f>
+        <f t="shared" ref="DG51" si="140">MAX(CG51:CH52)</f>
         <v>3.6552517133085738</v>
       </c>
       <c r="DI51">
-        <f t="shared" ref="DI51:DI55" si="141">MAX(CI51:CJ52)</f>
+        <f t="shared" ref="DI51" si="141">MAX(CI51:CJ52)</f>
         <v>0</v>
       </c>
       <c r="DK51">
-        <f t="shared" ref="DK51:DK55" si="142">MAX(CK51:CL52)</f>
+        <f t="shared" ref="DK51" si="142">MAX(CK51:CL52)</f>
         <v>0</v>
       </c>
       <c r="DN51">
@@ -14701,7 +14718,7 @@
         <v>0.47084842990016917</v>
       </c>
     </row>
-    <row r="52" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="52" spans="34:142" x14ac:dyDescent="0.2">
       <c r="AH52">
         <f t="array" ref="AH52">SUM(A22:C24*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -14907,7 +14924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="53" spans="34:142" x14ac:dyDescent="0.2">
       <c r="AH53">
         <f t="array" ref="AH53">SUM(A23:C25*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -15113,55 +15130,55 @@
         <v>0</v>
       </c>
       <c r="CM53">
-        <f t="shared" ref="CM53:CM55" si="143">MAX(BM53:BN54)</f>
+        <f t="shared" ref="CM53" si="143">MAX(BM53:BN54)</f>
         <v>0</v>
       </c>
       <c r="CO53">
-        <f t="shared" ref="CO53:CO55" si="144">MAX(BO53:BP54)</f>
+        <f t="shared" ref="CO53" si="144">MAX(BO53:BP54)</f>
         <v>0.50896123341568766</v>
       </c>
       <c r="CQ53">
-        <f t="shared" ref="CQ53:CQ55" si="145">MAX(BQ53:BR54)</f>
+        <f t="shared" ref="CQ53" si="145">MAX(BQ53:BR54)</f>
         <v>0.79741152585673492</v>
       </c>
       <c r="CS53">
-        <f t="shared" ref="CS53:CS55" si="146">MAX(BS53:BT54)</f>
+        <f t="shared" ref="CS53" si="146">MAX(BS53:BT54)</f>
         <v>0.33217932523177468</v>
       </c>
       <c r="CU53">
-        <f t="shared" ref="CU53:CU55" si="147">MAX(BU53:BV54)</f>
+        <f t="shared" ref="CU53" si="147">MAX(BU53:BV54)</f>
         <v>0</v>
       </c>
       <c r="CW53">
-        <f t="shared" ref="CW53:CW55" si="148">MAX(BW53:BX54)</f>
+        <f t="shared" ref="CW53" si="148">MAX(BW53:BX54)</f>
         <v>1.7158617863318357</v>
       </c>
       <c r="CY53">
-        <f t="shared" ref="CY53:CY55" si="149">MAX(BY53:BZ54)</f>
+        <f t="shared" ref="CY53" si="149">MAX(BY53:BZ54)</f>
         <v>17.068802058176665</v>
       </c>
       <c r="DA53">
-        <f t="shared" ref="DA53:DA55" si="150">MAX(CA53:CB54)</f>
+        <f t="shared" ref="DA53" si="150">MAX(CA53:CB54)</f>
         <v>29.749243450439501</v>
       </c>
       <c r="DC53">
-        <f t="shared" ref="DC53:DC55" si="151">MAX(CC53:CD54)</f>
+        <f t="shared" ref="DC53" si="151">MAX(CC53:CD54)</f>
         <v>29.787581996182315</v>
       </c>
       <c r="DE53">
-        <f t="shared" ref="DE53:DE55" si="152">MAX(CE53:CF54)</f>
+        <f t="shared" ref="DE53" si="152">MAX(CE53:CF54)</f>
         <v>11.879170115474352</v>
       </c>
       <c r="DG53">
-        <f t="shared" ref="DG53:DG55" si="153">MAX(CG53:CH54)</f>
+        <f t="shared" ref="DG53" si="153">MAX(CG53:CH54)</f>
         <v>0.63070121055169737</v>
       </c>
       <c r="DI53">
-        <f t="shared" ref="DI53:DI55" si="154">MAX(CI53:CJ54)</f>
+        <f t="shared" ref="DI53" si="154">MAX(CI53:CJ54)</f>
         <v>0</v>
       </c>
       <c r="DK53">
-        <f t="shared" ref="DK53:DK55" si="155">MAX(CK53:CL54)</f>
+        <f t="shared" ref="DK53" si="155">MAX(CK53:CL54)</f>
         <v>0</v>
       </c>
       <c r="DN53">
@@ -15204,7 +15221,7 @@
         <v>0.33449439821404614</v>
       </c>
     </row>
-    <row r="54" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="54" spans="34:142" x14ac:dyDescent="0.2">
       <c r="AH54">
         <f t="array" ref="AH54">SUM(A24:C26*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -15410,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="55" spans="34:142" x14ac:dyDescent="0.2">
       <c r="AH55">
         <f t="array" ref="AH55">SUM(A25:C27*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -15707,7 +15724,7 @@
         <v>0.86842391434777921</v>
       </c>
     </row>
-    <row r="56" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="56" spans="34:142" x14ac:dyDescent="0.2">
       <c r="AH56">
         <f t="array" ref="AH56">SUM(A26:C28*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -15913,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="34:142" x14ac:dyDescent="0.45">
+    <row r="57" spans="34:142" x14ac:dyDescent="0.2">
       <c r="AH57">
         <f t="array" ref="AH57">SUM(A27:C29*$AD$38:$AF$40)</f>
         <v>0</v>
